--- a/Grosvenor Coal Mine, Australia, M0045.xlsx
+++ b/Grosvenor Coal Mine, Australia, M0045.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Grosvenor Coal Mine, Australia, M0045, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Grosvenor Coal Mine, Australia, M0045, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T67" s="0" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T68" s="0" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T69" s="0" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T71" s="0" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T72" s="0" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T73" s="0" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T74" s="0" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T75" s="0" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T76" s="0" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T77" s="0" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T78" s="0" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T79" s="0" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T80" s="0" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T81" s="0" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T82" s="0" t="inlineStr">
@@ -9882,7 +9882,7 @@
       </c>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T83" s="0" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T84" s="0" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T85" s="0" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T86" s="0" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T87" s="0" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T89" s="0" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T90" s="0" t="inlineStr">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T91" s="0" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T92" s="0" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T93" s="0" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T94" s="0" t="inlineStr">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T95" s="0" t="inlineStr">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T96" s="0" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T97" s="0" t="inlineStr">
@@ -11292,7 +11292,7 @@
       </c>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T98" s="0" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T99" s="0" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T100" s="0" t="inlineStr">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T101" s="0" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T102" s="0" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T103" s="0" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T104" s="0" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T105" s="0" t="inlineStr">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T106" s="0" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T107" s="0" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T108" s="0" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T109" s="0" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T110" s="0" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T111" s="0" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T113" s="0" t="inlineStr">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T114" s="0" t="inlineStr">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T115" s="0" t="inlineStr">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T116" s="0" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T117" s="0" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T118" s="0" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T119" s="0" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T120" s="0" t="inlineStr">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T121" s="0" t="inlineStr">
@@ -13548,7 +13548,7 @@
       </c>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T122" s="0" t="inlineStr">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T123" s="0" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T124" s="0" t="inlineStr">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T125" s="0" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="S126" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T126" s="0" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="S127" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T127" s="0" t="inlineStr">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T128" s="0" t="inlineStr">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T129" s="0" t="inlineStr">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T130" s="0" t="inlineStr">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T132" s="0" t="inlineStr">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="S133" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T133" s="0" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="S134" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T134" s="0" t="inlineStr">
@@ -14770,7 +14770,7 @@
       </c>
       <c r="S135" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T135" s="0" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="S136" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T136" s="0" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="S137" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T137" s="0" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="S138" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T138" s="0" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="S139" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T139" s="0" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="S140" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T140" s="0" t="inlineStr">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="S141" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T141" s="0" t="inlineStr">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="S142" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T142" s="0" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="S143" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T143" s="0" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="S144" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T144" s="0" t="inlineStr">
@@ -15710,7 +15710,7 @@
       </c>
       <c r="S145" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T145" s="0" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="S146" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T146" s="0" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="S147" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T147" s="0" t="inlineStr">

--- a/Grosvenor Coal Mine, Australia, M0045.xlsx
+++ b/Grosvenor Coal Mine, Australia, M0045.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Grosvenor Coal Mine, Australia, M0045, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Grosvenor Coal Mine, Australia, M0045, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T67" s="0" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T68" s="0" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T69" s="0" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T71" s="0" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T72" s="0" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T73" s="0" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T74" s="0" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T75" s="0" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T76" s="0" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T77" s="0" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T78" s="0" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T79" s="0" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T80" s="0" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T81" s="0" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T82" s="0" t="inlineStr">
@@ -9882,7 +9882,7 @@
       </c>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T83" s="0" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T84" s="0" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T85" s="0" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T86" s="0" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T87" s="0" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T89" s="0" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T90" s="0" t="inlineStr">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T91" s="0" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T92" s="0" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T93" s="0" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T94" s="0" t="inlineStr">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T95" s="0" t="inlineStr">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T96" s="0" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T97" s="0" t="inlineStr">
@@ -11292,7 +11292,7 @@
       </c>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T98" s="0" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T99" s="0" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T100" s="0" t="inlineStr">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T101" s="0" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T102" s="0" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T103" s="0" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T104" s="0" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T105" s="0" t="inlineStr">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T106" s="0" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T107" s="0" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T108" s="0" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T109" s="0" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T110" s="0" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T111" s="0" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T113" s="0" t="inlineStr">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T114" s="0" t="inlineStr">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T115" s="0" t="inlineStr">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T116" s="0" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T117" s="0" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T118" s="0" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T119" s="0" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T120" s="0" t="inlineStr">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T121" s="0" t="inlineStr">
@@ -13548,7 +13548,7 @@
       </c>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T122" s="0" t="inlineStr">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T123" s="0" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T124" s="0" t="inlineStr">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T125" s="0" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="S126" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T126" s="0" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="S127" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T127" s="0" t="inlineStr">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T128" s="0" t="inlineStr">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T129" s="0" t="inlineStr">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T130" s="0" t="inlineStr">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T132" s="0" t="inlineStr">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="S133" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T133" s="0" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="S134" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T134" s="0" t="inlineStr">
@@ -14770,7 +14770,7 @@
       </c>
       <c r="S135" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T135" s="0" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="S136" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T136" s="0" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="S137" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T137" s="0" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="S138" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T138" s="0" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="S139" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T139" s="0" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="S140" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T140" s="0" t="inlineStr">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="S141" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T141" s="0" t="inlineStr">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="S142" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T142" s="0" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="S143" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T143" s="0" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="S144" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T144" s="0" t="inlineStr">
@@ -15710,7 +15710,7 @@
       </c>
       <c r="S145" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T145" s="0" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="S146" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T146" s="0" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="S147" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T147" s="0" t="inlineStr">

--- a/Grosvenor Coal Mine, Australia, M0045.xlsx
+++ b/Grosvenor Coal Mine, Australia, M0045.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Grosvenor Coal Mine, Australia, M0045, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Grosvenor Coal Mine, Australia, M0045, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T67" s="0" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T68" s="0" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T69" s="0" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T71" s="0" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T72" s="0" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T73" s="0" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T74" s="0" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T75" s="0" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T76" s="0" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T77" s="0" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T78" s="0" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T79" s="0" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T80" s="0" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T81" s="0" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T82" s="0" t="inlineStr">
@@ -9882,7 +9882,7 @@
       </c>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T83" s="0" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T84" s="0" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T85" s="0" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T86" s="0" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T87" s="0" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T89" s="0" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T90" s="0" t="inlineStr">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T91" s="0" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T92" s="0" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T93" s="0" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T94" s="0" t="inlineStr">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T95" s="0" t="inlineStr">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T96" s="0" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T97" s="0" t="inlineStr">
@@ -11292,7 +11292,7 @@
       </c>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T98" s="0" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T99" s="0" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T100" s="0" t="inlineStr">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T101" s="0" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T102" s="0" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T103" s="0" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T104" s="0" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T105" s="0" t="inlineStr">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T106" s="0" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T107" s="0" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T108" s="0" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T109" s="0" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T110" s="0" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T111" s="0" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T113" s="0" t="inlineStr">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T114" s="0" t="inlineStr">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T115" s="0" t="inlineStr">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T116" s="0" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T117" s="0" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T118" s="0" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T119" s="0" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T120" s="0" t="inlineStr">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T121" s="0" t="inlineStr">
@@ -13548,7 +13548,7 @@
       </c>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T122" s="0" t="inlineStr">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T123" s="0" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T124" s="0" t="inlineStr">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T125" s="0" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="S126" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T126" s="0" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="S127" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T127" s="0" t="inlineStr">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T128" s="0" t="inlineStr">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T129" s="0" t="inlineStr">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T130" s="0" t="inlineStr">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T132" s="0" t="inlineStr">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="S133" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T133" s="0" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="S134" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T134" s="0" t="inlineStr">
@@ -14770,7 +14770,7 @@
       </c>
       <c r="S135" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T135" s="0" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="S136" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T136" s="0" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="S137" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T137" s="0" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="S138" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T138" s="0" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="S139" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T139" s="0" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="S140" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T140" s="0" t="inlineStr">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="S141" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T141" s="0" t="inlineStr">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="S142" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T142" s="0" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="S143" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T143" s="0" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="S144" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T144" s="0" t="inlineStr">
@@ -15710,7 +15710,7 @@
       </c>
       <c r="S145" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T145" s="0" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="S146" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T146" s="0" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="S147" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T147" s="0" t="inlineStr">

--- a/Grosvenor Coal Mine, Australia, M0045.xlsx
+++ b/Grosvenor Coal Mine, Australia, M0045.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Grosvenor Coal Mine, Australia, M0045, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Grosvenor Coal Mine, Australia, M0045, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T67" s="0" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T68" s="0" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T69" s="0" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T71" s="0" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T72" s="0" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T73" s="0" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T74" s="0" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T75" s="0" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T76" s="0" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T77" s="0" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T78" s="0" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T79" s="0" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T80" s="0" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T81" s="0" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T82" s="0" t="inlineStr">
@@ -9882,7 +9882,7 @@
       </c>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T83" s="0" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T84" s="0" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T85" s="0" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T86" s="0" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T87" s="0" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T89" s="0" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T90" s="0" t="inlineStr">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T91" s="0" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T92" s="0" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T93" s="0" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T94" s="0" t="inlineStr">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T95" s="0" t="inlineStr">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T96" s="0" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T97" s="0" t="inlineStr">
@@ -11292,7 +11292,7 @@
       </c>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T98" s="0" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T99" s="0" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T100" s="0" t="inlineStr">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T101" s="0" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T102" s="0" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T103" s="0" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T104" s="0" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T105" s="0" t="inlineStr">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T106" s="0" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T107" s="0" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T108" s="0" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T109" s="0" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T110" s="0" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T111" s="0" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T113" s="0" t="inlineStr">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T114" s="0" t="inlineStr">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T115" s="0" t="inlineStr">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T116" s="0" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T117" s="0" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T118" s="0" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T119" s="0" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T120" s="0" t="inlineStr">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T121" s="0" t="inlineStr">
@@ -13548,7 +13548,7 @@
       </c>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T122" s="0" t="inlineStr">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T123" s="0" t="inlineStr">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T124" s="0" t="inlineStr">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T125" s="0" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="S126" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T126" s="0" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="S127" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T127" s="0" t="inlineStr">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T128" s="0" t="inlineStr">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T129" s="0" t="inlineStr">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T130" s="0" t="inlineStr">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T132" s="0" t="inlineStr">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="S133" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T133" s="0" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="S134" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T134" s="0" t="inlineStr">
@@ -14770,7 +14770,7 @@
       </c>
       <c r="S135" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T135" s="0" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="S136" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T136" s="0" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="S137" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T137" s="0" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="S138" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T138" s="0" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="S139" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T139" s="0" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="S140" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T140" s="0" t="inlineStr">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="S141" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T141" s="0" t="inlineStr">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="S142" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T142" s="0" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="S143" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T143" s="0" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="S144" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T144" s="0" t="inlineStr">
@@ -15710,7 +15710,7 @@
       </c>
       <c r="S145" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T145" s="0" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="S146" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T146" s="0" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="S147" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T147" s="0" t="inlineStr">
